--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFinished.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFinished.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83FD11-D127-4AD2-99F2-D5BA177A881A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6528" yWindow="276" windowWidth="16380" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -227,11 +226,16 @@
     <t>法拍完成資料檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>月底批次抓取CollLaw法務進度檔寫入
+條件:法務進度：60.領取分配款（押品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -398,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,11 +471,14 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,23 +569,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -614,23 +604,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -821,10 +794,12 @@
     <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="8" width="46.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
@@ -839,7 +814,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="11" t="s">
@@ -851,8 +826,11 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
@@ -867,7 +845,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
@@ -878,7 +856,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
@@ -889,7 +867,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
@@ -900,7 +878,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
@@ -911,7 +889,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
@@ -934,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -953,7 +931,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -972,7 +950,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -993,7 +971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1010,7 +988,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -1029,7 +1007,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1046,7 +1024,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1082,7 +1060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFinished.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFinished.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53E106-96D6-4F9F-AA89-9EDB790AA17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -117,9 +118,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateDate</t>
   </si>
   <si>
@@ -230,12 +228,15 @@
     <t>月底批次抓取CollLaw法務進度檔寫入
 條件:法務進度：60.領取分配款（押品）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,11 +403,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -415,25 +416,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,9 +440,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -466,19 +461,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,9 +489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,9 +529,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -779,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -791,257 +786,257 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="8" width="46.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="23" t="s">
+      <c r="D3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17">
-        <v>7</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="17">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="E15" s="15">
         <v>6</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="17">
-        <v>6</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1060,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1077,18 +1072,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
